--- a/Retail_Price_Data.xlsx
+++ b/Retail_Price_Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\varsha.ramamurthy\Documents\Python Scripts\archive\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://o9-my.sharepoint.com/personal/varsha_ramamurthy_o9solutions_com/Documents/Documents/Personal/GitHub/Retail_Price_Optimization/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{64BE1FE0-FFF2-4824-BE83-1E4C03E6EFB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{64BE1FE0-FFF2-4824-BE83-1E4C03E6EFB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C72565DD-95D2-4CA4-B08B-0B24C50E000F}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="retail_price" sheetId="1" r:id="rId1"/>
@@ -298,7 +298,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1133,14 +1133,42 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD677"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S3" sqref="S3"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="4" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="12" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="4" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="12" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="4" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="12" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
